--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr8_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr8_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -192,55 +243,55 @@
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="15.77734375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.26242565707397242</v>
+        <v>0.2046596122501402</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28200726139019761</v>
+        <v>0.15052884352668461</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0024940638937502643</v>
+        <v>0.00024863161325972021</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00041480584849947974</v>
+        <v>0.00091894786295192545</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0034576891215143614</v>
+        <v>0.0014118561018053196</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00027518104584621728</v>
+        <v>0.0012274962264802378</v>
       </c>
       <c r="H3" s="0">
-        <v>9.6945589539327408e-06</v>
+        <v>-2.0883281887513026e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00028532019586779289</v>
+        <v>-0.00043557246717156479</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>2.554873754534448e-05</v>
+        <v>0.0042830135195376096</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.35077486384435008</v>
+        <v>0.32349010735093575</v>
       </c>
       <c r="C4" s="0">
-        <v>0.028706465110417689</v>
+        <v>0.05923801670372951</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-4.7248574180807018e-05</v>
+        <v>-0.00026675906990905385</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00031633258178331158</v>
+        <v>4.8959100441497626e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>1.4818962941875783e-06</v>
+        <v>0.00076229065574491854</v>
       </c>
       <c r="I4" s="0">
-        <v>-2.3922739846082984e-06</v>
+        <v>-0.0019520451997265213</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00068409833491800702</v>
+        <v>0.0034930066832684196</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.0022913265603325961</v>
+        <v>-0.0028964633514074745</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.38878555679311394</v>
+        <v>0.35452077155916645</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0068439195313464924</v>
+        <v>0.00069575124771551996</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0015239141621963036</v>
+        <v>-0.0012603216396627332</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0037725219532054322</v>
+        <v>0.012863167503836884</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00020494624907080859</v>
+        <v>-0.0027692757924594803</v>
       </c>
       <c r="H5" s="0">
-        <v>0.00011275630550620673</v>
+        <v>0.00028174265744921245</v>
       </c>
       <c r="I5" s="0">
-        <v>0.00025675959903341062</v>
+        <v>-0.00066542950889444854</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0019908986793613637</v>
+        <v>-0.0061313425543388367</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.31051207062610348</v>
+        <v>0.28113473841385495</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.020321067670142672</v>
+        <v>-0.030903751166991393</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00011796815138884004</v>
+        <v>-0.0048169103458063772</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00015185509868118359</v>
+        <v>0.00066617334243742297</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-9.1085807613459113e-05</v>
+        <v>0.0016853835914866853</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0006275219616563814</v>
+        <v>-0.010914354535699984</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0056548293097828939</v>
+        <v>-0.0012474482223754912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.23116333422856838</v>
+        <v>0.23685848908319673</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0046063176513375988</v>
+        <v>-0.033820979617520834</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0045408065724951222</v>
+        <v>-0.0020945792695088428</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0063574408187289412</v>
+        <v>0.0097130933270863518</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00019785622304424586</v>
+        <v>0.0020301092135424684</v>
       </c>
       <c r="H7" s="0">
-        <v>-5.5997672455567425e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.00018735618742510271</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>1.5196996023036924e-05</v>
+        <v>-0.0057531192615122295</v>
       </c>
     </row>
     <row r="8">
